--- a/src/deep_malware_detection/Book1.xlsx
+++ b/src/deep_malware_detection/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\deep-malware-detection\src\deep_malware_detection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\NT137.O11.ATCL\src\deep_malware_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8ACCE4-068F-4473-8D9E-ABFEAAF5DAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8B1899-DA0B-4D4C-96A1-A6D6C9017243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{19401734-82A6-4E0D-A989-125CC99278BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{19401734-82A6-4E0D-A989-125CC99278BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,18 +19,21 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$2:$F$4</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$H$2:$H$4</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$H$2:$H$5</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$2:$G$4</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$2:$H$4</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$2:$F$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$2:$G$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$H$2:$H$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$F$2:$F$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$2:$G$4</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$2:$G$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,15 +55,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>MalConvBase</t>
   </si>
   <si>
     <t>MalConvPlus</t>
-  </si>
-  <si>
-    <t>GRU-CNN</t>
   </si>
   <si>
     <t>Acc</t>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Sum of F1</t>
+  </si>
+  <si>
+    <t>RCNN</t>
+  </si>
+  <si>
+    <t>MalConVLSTM</t>
   </si>
 </sst>
 </file>
@@ -108,9 +114,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,29 +138,28 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="boxWhisker" uniqueId="{C34763B1-25A6-4384-A01E-66A7FFEBD1D5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>Acc</cx:v>
             </cx:txData>
           </cx:tx>
@@ -168,7 +172,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6261F55A-7952-47E9-A825-DBB948A66D33}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>F1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -189,6 +193,7 @@
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -758,10 +763,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -798,7 +803,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2447925" y="1609725"/>
-              <a:ext cx="8039100" cy="4124325"/>
+              <a:ext cx="8724900" cy="4829175"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -870,7 +875,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7C90990-00F5-4D7A-B35F-968D80156FDF}" name="PivotTable6" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7C90990-00F5-4D7A-B35F-968D80156FDF}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -1217,17 +1222,17 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>2.8746</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>2.8975999999999997</v>
       </c>
     </row>
@@ -1238,23 +1243,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E89F6C-0A1D-44D6-A503-EE5F7FE72874}">
-  <dimension ref="F1:H4"/>
+  <dimension ref="F1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="6:8" x14ac:dyDescent="0.25">
@@ -1281,13 +1286,24 @@
     </row>
     <row r="4" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>0.93189999999999995</v>
       </c>
       <c r="H4">
         <v>0.94369999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>0.4496</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
